--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -82,6 +82,22 @@
   <si>
     <t>对项目模块还没有创建
 自己的类</t>
+  </si>
+  <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>实体类和测试类</t>
+  </si>
+  <si>
+    <t>创建了自己的实体类并写
+出测试类</t>
+  </si>
+  <si>
+    <t>继续对模块创建</t>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
   </si>
 </sst>
 </file>
@@ -89,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -104,22 +120,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,15 +162,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,25 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,54 +240,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,24 +272,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,157 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +470,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +491,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +540,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,181 +563,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1049,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
@@ -1144,6 +1163,31 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="46" customHeight="1" spans="1:5">
+      <c r="A6" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>9:30-11:30</t>
+  </si>
+  <si>
+    <t>测试类</t>
+  </si>
+  <si>
+    <t>执行错误</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -120,12 +126,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -134,14 +162,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +240,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,76 +263,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +278,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,31 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +502,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,9 +537,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,16 +560,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,142 +587,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1071,7 +1074,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1175,19 +1178,25 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="41" customHeight="1" spans="1:2">
+    <row r="7" ht="41" customHeight="1" spans="1:4">
       <c r="A7" s="1">
         <v>43237</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>日期</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>完善代码注释</t>
+  </si>
+  <si>
+    <t>完善代码注释，学习ExtJS</t>
+  </si>
+  <si>
+    <t>学习ExtJS;学习AOP(基于注解的方法切入）</t>
+  </si>
+  <si>
+    <t>动手导入jar包，配置等</t>
+  </si>
+  <si>
+    <t>出现很多错误</t>
+  </si>
+  <si>
+    <t>删除等待后续</t>
   </si>
 </sst>
 </file>
@@ -235,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -250,6 +265,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,6 +285,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -272,6 +309,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,8 +336,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,63 +393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,30 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,39 +608,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,6 +622,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,16 +699,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1533,6 +1548,59 @@
       </c>
       <c r="E20" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>日期</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>删除等待后续</t>
+  </si>
+  <si>
+    <t>学习ExtJS</t>
+  </si>
+  <si>
+    <t>spirng AOP</t>
   </si>
 </sst>
 </file>
@@ -250,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -265,6 +271,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -272,12 +301,73 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,49 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -352,33 +399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,22 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,6 +423,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,175 +507,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,30 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -659,6 +641,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -670,6 +661,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,36 +714,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1595,11 +1601,41 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>43280</v>
       </c>
       <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
     </row>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19100" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>日期</t>
   </si>
@@ -245,10 +245,25 @@
     <t>删除等待后续</t>
   </si>
   <si>
+    <t>学习ExtJS基础</t>
+  </si>
+  <si>
+    <t>理解</t>
+  </si>
+  <si>
     <t>学习ExtJS</t>
   </si>
   <si>
-    <t>spirng AOP</t>
+    <t>大致了解extjs基本结构</t>
+  </si>
+  <si>
+    <t>学习spirng AOP</t>
+  </si>
+  <si>
+    <t>利用AOP实现用户使用日志</t>
+  </si>
+  <si>
+    <t>不能实现</t>
   </si>
 </sst>
 </file>
@@ -256,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -274,6 +289,51 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,7 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,15 +381,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,14 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -358,61 +428,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,31 +438,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,151 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,54 +629,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,7 +662,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,16 +720,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1601,7 +1616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43280</v>
       </c>
@@ -1611,16 +1626,31 @@
       <c r="C24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43283</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>43284</v>
       </c>
@@ -1628,14 +1658,45 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>43285</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
     </row>

--- a/doc/log/log_201608040203_huayongxiang.xlsx
+++ b/doc/log/log_201608040203_huayongxiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>日期</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>不能实现</t>
+  </si>
+  <si>
+    <t>完善模块</t>
+  </si>
+  <si>
+    <t>完善成功</t>
+  </si>
+  <si>
+    <t>完善日志</t>
   </si>
 </sst>
 </file>
@@ -273,8 +282,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -299,8 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,8 +331,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +407,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -336,98 +437,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,13 +447,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,169 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +638,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,41 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,21 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -729,16 +708,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,13 +759,13 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,115 +774,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1243,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1684,20 +1693,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>43286</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>43287</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
